--- a/conditionsFiles/Meg_prosody_block1.xlsx
+++ b/conditionsFiles/Meg_prosody_block1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21405" yWindow="7380" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="21400" yWindow="7380" windowWidth="20740" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="66">
   <si>
     <t>stim</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>4_ang_sw_trimF.wav</t>
+  </si>
+  <si>
+    <t>trigg_code</t>
   </si>
 </sst>
 </file>
@@ -262,8 +265,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -288,7 +301,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -299,6 +312,11 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -309,6 +327,11 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,15 +666,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -685,174 +708,189 @@
       <c r="K1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>-1.1424907215263371</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>71</v>
+      </c>
+      <c r="H2">
+        <v>3.13696145124716</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>0.97211157047895325</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>-1.1424907215263371</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>71</v>
+      </c>
+      <c r="H3">
+        <v>3.13696145124716</v>
+      </c>
+      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>-1.1424907215263371</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>71</v>
+      </c>
+      <c r="H4">
+        <v>3.13696145124716</v>
+      </c>
+      <c r="I4">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>-1.1293393049458027</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>66</v>
-      </c>
-      <c r="G2">
-        <v>96</v>
-      </c>
-      <c r="H2">
-        <v>2.688027210884353</v>
-      </c>
-      <c r="I2">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F5">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>72</v>
+      </c>
+      <c r="H5">
+        <v>3.8270294784580399</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>-1.4805664680963626</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-      <c r="G3">
-        <v>80</v>
-      </c>
-      <c r="H3">
-        <v>3.5404761904761903</v>
-      </c>
-      <c r="I3">
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>-1.1293393049458027</v>
+      </c>
+      <c r="D6">
         <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.98948011330479291</v>
-      </c>
-      <c r="D4">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>67</v>
-      </c>
-      <c r="G4">
-        <v>97</v>
-      </c>
-      <c r="H4">
-        <v>3.0989115646258503</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>-0.41232228679959398</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>54</v>
-      </c>
-      <c r="G5">
-        <v>84</v>
-      </c>
-      <c r="H5">
-        <v>3.1113832199546403</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>-0.53706073129766818</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6">
-        <v>3.75081632653061</v>
+        <v>3.8270294784580399</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
         <v>38</v>
@@ -860,104 +898,113 @@
       <c r="K6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>-1.1424907215263371</v>
+        <v>-1.1293393049458027</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7">
-        <v>3.13696145124716</v>
+        <v>3.8270294784580399</v>
       </c>
       <c r="I7">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0.15674237052672263</v>
+        <v>-0.53706073129766818</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>73</v>
+      </c>
+      <c r="H8">
+        <v>3.75081632653061</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>-0.53706073129766818</v>
+      </c>
+      <c r="D9">
         <v>3</v>
-      </c>
-      <c r="F8">
-        <v>55</v>
-      </c>
-      <c r="G8">
-        <v>85</v>
-      </c>
-      <c r="H8">
-        <v>3.16766439909297</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1.4242230970513805</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G9">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H9">
-        <v>3.3681859410430799</v>
+        <v>3.75081632653061</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
         <v>38</v>
@@ -965,34 +1012,37 @@
       <c r="K9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-0.63412378462273378</v>
+        <v>-0.53706073129766818</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="H10">
-        <v>3.3168480725623501</v>
+        <v>3.75081632653061</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
@@ -1000,34 +1050,37 @@
       <c r="K10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>-1.1293393049458027</v>
+        <v>-0.3072020091293417</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H11">
-        <v>3.8270294784580399</v>
+        <v>3.2894784580498797</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
         <v>38</v>
@@ -1035,8 +1088,11 @@
       <c r="K11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1062,7 +1118,7 @@
         <v>3.2894784580498797</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
         <v>38</v>
@@ -1070,34 +1126,37 @@
       <c r="K12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>-0.62197768686718324</v>
+        <v>-0.3072020091293417</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G13">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H13">
-        <v>3.5562358276643899</v>
+        <v>3.2894784580498797</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
         <v>38</v>
@@ -1105,209 +1164,227 @@
       <c r="K13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>6.3624465804048597E-2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>75</v>
+      </c>
+      <c r="H14">
+        <v>3.18668934240362</v>
+      </c>
+      <c r="I14">
         <v>17</v>
       </c>
-      <c r="C14">
-        <v>0.16624841156760786</v>
-      </c>
-      <c r="D14">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>63</v>
-      </c>
-      <c r="G14">
-        <v>93</v>
-      </c>
-      <c r="H14">
-        <v>3.0609977324263</v>
-      </c>
-      <c r="I14">
-        <v>13</v>
-      </c>
       <c r="J14" t="s">
         <v>38</v>
       </c>
       <c r="K14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>0.46505470843950819</v>
+        <v>6.3624465804048597E-2</v>
       </c>
       <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <v>3.18668934240362</v>
+      </c>
+      <c r="I15">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>6.3624465804048597E-2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <v>3.18668934240362</v>
+      </c>
+      <c r="I16">
+        <v>69</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>64</v>
-      </c>
-      <c r="G15">
-        <v>94</v>
-      </c>
-      <c r="H15">
-        <v>3.6325170068027202</v>
-      </c>
-      <c r="I15">
-        <v>14</v>
-      </c>
-      <c r="J15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C17">
+        <v>0.23169249593766542</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>46</v>
+      </c>
+      <c r="G17">
+        <v>76</v>
+      </c>
+      <c r="H17">
+        <v>3.35551020408163</v>
+      </c>
+      <c r="I17">
         <v>19</v>
       </c>
-      <c r="C16">
-        <v>0.80567575168831174</v>
-      </c>
-      <c r="D16">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="G16">
-        <v>87</v>
-      </c>
-      <c r="H16">
-        <v>3.9615873015872998</v>
-      </c>
-      <c r="I16">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>1.4046911804528555</v>
-      </c>
-      <c r="D17">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>59</v>
-      </c>
-      <c r="G17">
-        <v>89</v>
-      </c>
-      <c r="H17">
-        <v>3.9851927437641699</v>
-      </c>
-      <c r="I17">
-        <v>16</v>
-      </c>
-      <c r="J17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>6.3624465804048597E-2</v>
+        <v>0.23169249593766542</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>76</v>
+      </c>
+      <c r="H18">
+        <v>3.35551020408163</v>
+      </c>
+      <c r="I18">
         <v>45</v>
       </c>
-      <c r="G18">
-        <v>75</v>
-      </c>
-      <c r="H18">
-        <v>3.18668934240362</v>
-      </c>
-      <c r="I18">
-        <v>17</v>
-      </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>0.78164074653547022</v>
+        <v>0.23169249593766542</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G19">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H19">
-        <v>3.9427210884353698</v>
+        <v>3.35551020408163</v>
       </c>
       <c r="I19">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
@@ -1315,139 +1392,151 @@
       <c r="K19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>0.23169249593766542</v>
+        <v>1.3965527081060551</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
+        <v>47</v>
+      </c>
+      <c r="G20">
+        <v>77</v>
+      </c>
+      <c r="H20">
+        <v>3.0733333333333297</v>
+      </c>
+      <c r="I20">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>1.3965527081060551</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>47</v>
+      </c>
+      <c r="G21">
+        <v>77</v>
+      </c>
+      <c r="H21">
+        <v>3.0733333333333297</v>
+      </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>1.3965527081060551</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <v>77</v>
+      </c>
+      <c r="H22">
+        <v>3.0733333333333297</v>
+      </c>
+      <c r="I22">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="G20">
-        <v>76</v>
-      </c>
-      <c r="H20">
-        <v>3.35551020408163</v>
-      </c>
-      <c r="I20">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>-0.7317971821406829</v>
-      </c>
-      <c r="D21">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>52</v>
-      </c>
-      <c r="G21">
-        <v>82</v>
-      </c>
-      <c r="H21">
-        <v>2.8854421768707481</v>
-      </c>
-      <c r="I21">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22">
-        <v>1.2549373232617196</v>
-      </c>
-      <c r="D22">
-        <v>17</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>58</v>
-      </c>
-      <c r="G22">
-        <v>88</v>
-      </c>
-      <c r="H22">
-        <v>3.54068027210884</v>
-      </c>
-      <c r="I22">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>-1.1913061482898895</v>
+        <v>1.4242230970513805</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G23">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H23">
-        <v>3.7509750566893398</v>
+        <v>3.3681859410430799</v>
       </c>
       <c r="I23">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
@@ -1455,34 +1544,37 @@
       <c r="K23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>-1.5491056174137092</v>
+        <v>1.4242230970513805</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G24">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H24">
-        <v>3.30308390022675</v>
+        <v>3.3681859410430799</v>
       </c>
       <c r="I24">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J24" t="s">
         <v>38</v>
@@ -1490,34 +1582,37 @@
       <c r="K24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>1.3965527081060551</v>
+        <v>1.4242230970513805</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G25">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25">
-        <v>3.0733333333333297</v>
+        <v>3.3681859410430799</v>
       </c>
       <c r="I25">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
         <v>38</v>
@@ -1525,34 +1620,37 @@
       <c r="K25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>-1.0313048965229548</v>
+        <v>-1.4805664680963626</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26">
-        <v>3.6721768707482898</v>
+        <v>3.5404761904761903</v>
       </c>
       <c r="I26">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>38</v>
@@ -1560,34 +1658,37 @@
       <c r="K26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>0.65592189449717464</v>
+        <v>-1.4805664680963626</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G27">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H27">
-        <v>3.4781405895691599</v>
+        <v>3.5404761904761903</v>
       </c>
       <c r="I27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J27" t="s">
         <v>38</v>
@@ -1595,34 +1696,37 @@
       <c r="K27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>0.97211157047895325</v>
+        <v>-1.4805664680963626</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H28">
-        <v>2.688027210884353</v>
+        <v>3.5404761904761903</v>
       </c>
       <c r="I28">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s">
         <v>38</v>
@@ -1630,34 +1734,37 @@
       <c r="K28" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C29">
-        <v>-1.4805664680963626</v>
+        <v>-1.0313048965229548</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G29">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29">
-        <v>3.5404761904761903</v>
+        <v>3.6721768707482898</v>
       </c>
       <c r="I29">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J29" t="s">
         <v>38</v>
@@ -1665,69 +1772,75 @@
       <c r="K29" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>0.98948011330479291</v>
+        <v>-1.0313048965229548</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G30">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H30">
-        <v>3.0989115646258503</v>
+        <v>3.6721768707482898</v>
       </c>
       <c r="I30">
+        <v>51</v>
+      </c>
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="J30" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
       <c r="C31">
-        <v>-0.41232228679959398</v>
+        <v>-1.0313048965229548</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G31">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H31">
-        <v>3.1113832199546403</v>
+        <v>3.6721768707482898</v>
       </c>
       <c r="I31">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s">
         <v>38</v>
@@ -1735,34 +1848,37 @@
       <c r="K31" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C32">
-        <v>-0.53706073129766818</v>
+        <v>-0.7317971821406829</v>
       </c>
       <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
         <v>3</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
       <c r="F32">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G32">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H32">
-        <v>3.75081632653061</v>
+        <v>2.8854421768707481</v>
       </c>
       <c r="I32">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s">
         <v>38</v>
@@ -1770,34 +1886,37 @@
       <c r="K32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C33">
-        <v>-1.1424907215263371</v>
+        <v>-0.7317971821406829</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G33">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H33">
-        <v>3.13696145124716</v>
+        <v>2.8854421768707481</v>
       </c>
       <c r="I33">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s">
         <v>38</v>
@@ -1805,34 +1924,37 @@
       <c r="K33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>-0.7317971821406829</v>
+      </c>
+      <c r="D34">
         <v>11</v>
-      </c>
-      <c r="C34">
-        <v>0.15674237052672263</v>
-      </c>
-      <c r="D34">
-        <v>14</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G34">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H34">
-        <v>3.16766439909297</v>
+        <v>2.8854421768707481</v>
       </c>
       <c r="I34">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="J34" t="s">
         <v>38</v>
@@ -1840,174 +1962,189 @@
       <c r="K34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>-0.62197768686718324</v>
+      </c>
+      <c r="D35">
         <v>12</v>
       </c>
-      <c r="C35">
-        <v>1.4242230970513805</v>
-      </c>
-      <c r="D35">
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>53</v>
+      </c>
+      <c r="G35">
+        <v>83</v>
+      </c>
+      <c r="H35">
+        <v>3.5562358276643899</v>
+      </c>
+      <c r="I35">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>-0.62197768686718324</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>53</v>
+      </c>
+      <c r="G36">
+        <v>83</v>
+      </c>
+      <c r="H36">
+        <v>3.5562358276643899</v>
+      </c>
+      <c r="I36">
+        <v>38</v>
+      </c>
+      <c r="J36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>-0.62197768686718324</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>53</v>
+      </c>
+      <c r="G37">
+        <v>83</v>
+      </c>
+      <c r="H37">
+        <v>3.5562358276643899</v>
+      </c>
+      <c r="I37">
+        <v>64</v>
+      </c>
+      <c r="J37" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>48</v>
-      </c>
-      <c r="G35">
-        <v>78</v>
-      </c>
-      <c r="H35">
-        <v>3.3681859410430799</v>
-      </c>
-      <c r="I35">
-        <v>34</v>
-      </c>
-      <c r="J35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C38">
+        <v>-0.41232228679959398</v>
+      </c>
+      <c r="D38">
         <v>13</v>
       </c>
-      <c r="C36">
-        <v>-0.63412378462273378</v>
-      </c>
-      <c r="D36">
-        <v>21</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>62</v>
-      </c>
-      <c r="G36">
-        <v>92</v>
-      </c>
-      <c r="H36">
-        <v>3.3168480725623501</v>
-      </c>
-      <c r="I36">
-        <v>35</v>
-      </c>
-      <c r="J36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37">
-        <v>-1.1293393049458027</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>54</v>
+      </c>
+      <c r="G38">
+        <v>84</v>
+      </c>
+      <c r="H38">
+        <v>3.1113832199546403</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="G37">
-        <v>72</v>
-      </c>
-      <c r="H37">
-        <v>3.8270294784580399</v>
-      </c>
-      <c r="I37">
-        <v>36</v>
-      </c>
-      <c r="J37" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38">
-        <v>-0.3072020091293417</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>44</v>
-      </c>
-      <c r="G38">
-        <v>74</v>
-      </c>
-      <c r="H38">
-        <v>3.2894784580498797</v>
-      </c>
-      <c r="I38">
-        <v>37</v>
-      </c>
-      <c r="J38" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>-0.62197768686718324</v>
+        <v>-0.41232228679959398</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
       <c r="F39">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H39">
-        <v>3.5562358276643899</v>
+        <v>3.1113832199546403</v>
       </c>
       <c r="I39">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J39" t="s">
         <v>38</v>
@@ -2015,104 +2152,113 @@
       <c r="K39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>-0.41232228679959398</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>54</v>
+      </c>
+      <c r="G40">
+        <v>84</v>
+      </c>
+      <c r="H40">
+        <v>3.1113832199546403</v>
+      </c>
+      <c r="I40">
+        <v>56</v>
+      </c>
+      <c r="J40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40">
         <v>17</v>
       </c>
-      <c r="C40">
-        <v>0.16624841156760786</v>
-      </c>
-      <c r="D40">
-        <v>22</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>63</v>
-      </c>
-      <c r="G40">
-        <v>93</v>
-      </c>
-      <c r="H40">
-        <v>3.0609977324263</v>
-      </c>
-      <c r="I40">
-        <v>39</v>
-      </c>
-      <c r="J40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>0.15674237052672263</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>55</v>
+      </c>
+      <c r="G41">
+        <v>85</v>
+      </c>
+      <c r="H41">
+        <v>3.16766439909297</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41">
         <v>18</v>
       </c>
-      <c r="C41">
-        <v>0.46505470843950819</v>
-      </c>
-      <c r="D41">
-        <v>23</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>64</v>
-      </c>
-      <c r="G41">
-        <v>94</v>
-      </c>
-      <c r="H41">
-        <v>3.6325170068027202</v>
-      </c>
-      <c r="I41">
-        <v>40</v>
-      </c>
-      <c r="J41" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C42">
-        <v>0.80567575168831174</v>
+        <v>0.15674237052672263</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="F42">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G42">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H42">
-        <v>3.9615873015872998</v>
+        <v>3.16766439909297</v>
       </c>
       <c r="I42">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J42" t="s">
         <v>38</v>
@@ -2120,69 +2266,75 @@
       <c r="K42" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>1.4046911804528555</v>
+        <v>0.15674237052672263</v>
       </c>
       <c r="D43">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
       <c r="F43">
+        <v>55</v>
+      </c>
+      <c r="G43">
+        <v>85</v>
+      </c>
+      <c r="H43">
+        <v>3.16766439909297</v>
+      </c>
+      <c r="I43">
         <v>59</v>
       </c>
-      <c r="G43">
-        <v>89</v>
-      </c>
-      <c r="H43">
-        <v>3.9851927437641699</v>
-      </c>
-      <c r="I43">
-        <v>42</v>
-      </c>
       <c r="J43" t="s">
         <v>38</v>
       </c>
       <c r="K43" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C44">
-        <v>6.3624465804048597E-2</v>
+        <v>0.65592189449717464</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G44">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H44">
-        <v>3.18668934240362</v>
+        <v>3.4781405895691599</v>
       </c>
       <c r="I44">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J44" t="s">
         <v>38</v>
@@ -2190,34 +2342,37 @@
       <c r="K44" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>0.65592189449717464</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
         <v>56</v>
       </c>
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45">
-        <v>0.78164074653547022</v>
-      </c>
-      <c r="D45">
-        <v>24</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45">
-        <v>65</v>
-      </c>
       <c r="G45">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H45">
-        <v>3.9427210884353698</v>
+        <v>3.4781405895691599</v>
       </c>
       <c r="I45">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s">
         <v>38</v>
@@ -2225,34 +2380,37 @@
       <c r="K45" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C46">
-        <v>0.23169249593766542</v>
+        <v>0.65592189449717464</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G46">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H46">
-        <v>3.35551020408163</v>
+        <v>3.4781405895691599</v>
       </c>
       <c r="I46">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s">
         <v>38</v>
@@ -2260,34 +2418,37 @@
       <c r="K46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C47">
-        <v>-0.7317971821406829</v>
+        <v>0.80567575168831174</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>3</v>
       </c>
       <c r="F47">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G47">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H47">
-        <v>2.8854421768707481</v>
+        <v>3.9615873015872998</v>
       </c>
       <c r="I47">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
@@ -2295,174 +2456,189 @@
       <c r="K47" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C48">
-        <v>1.2549373232617196</v>
+        <v>0.80567575168831174</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>3</v>
       </c>
       <c r="F48">
+        <v>57</v>
+      </c>
+      <c r="G48">
+        <v>87</v>
+      </c>
+      <c r="H48">
+        <v>3.9615873015872998</v>
+      </c>
+      <c r="I48">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>0.80567575168831174</v>
+      </c>
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>57</v>
+      </c>
+      <c r="G49">
+        <v>87</v>
+      </c>
+      <c r="H49">
+        <v>3.9615873015872998</v>
+      </c>
+      <c r="I49">
+        <v>67</v>
+      </c>
+      <c r="J49" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>1.2549373232617196</v>
+      </c>
+      <c r="D50">
+        <v>17</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
         <v>58</v>
       </c>
-      <c r="G48">
+      <c r="G50">
         <v>88</v>
       </c>
-      <c r="H48">
+      <c r="H50">
         <v>3.54068027210884</v>
       </c>
-      <c r="I48">
+      <c r="I50">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" t="s">
+        <v>39</v>
+      </c>
+      <c r="L50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>1.2549373232617196</v>
+      </c>
+      <c r="D51">
+        <v>17</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>58</v>
+      </c>
+      <c r="G51">
+        <v>88</v>
+      </c>
+      <c r="H51">
+        <v>3.54068027210884</v>
+      </c>
+      <c r="I51">
         <v>47</v>
       </c>
-      <c r="J48" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49">
-        <v>-1.1913061482898895</v>
-      </c>
-      <c r="D49">
-        <v>20</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>61</v>
-      </c>
-      <c r="G49">
-        <v>91</v>
-      </c>
-      <c r="H49">
-        <v>3.7509750566893398</v>
-      </c>
-      <c r="I49">
-        <v>48</v>
-      </c>
-      <c r="J49" t="s">
-        <v>38</v>
-      </c>
-      <c r="K49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50">
-        <v>-1.5491056174137092</v>
-      </c>
-      <c r="D50">
-        <v>19</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50">
-        <v>60</v>
-      </c>
-      <c r="G50">
-        <v>90</v>
-      </c>
-      <c r="H50">
-        <v>3.30308390022675</v>
-      </c>
-      <c r="I50">
-        <v>49</v>
-      </c>
-      <c r="J50" t="s">
-        <v>38</v>
-      </c>
-      <c r="K50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51">
-        <v>1.3965527081060551</v>
-      </c>
-      <c r="D51">
-        <v>7</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>47</v>
-      </c>
-      <c r="G51">
-        <v>77</v>
-      </c>
-      <c r="H51">
-        <v>3.0733333333333297</v>
-      </c>
-      <c r="I51">
-        <v>50</v>
-      </c>
       <c r="J51" t="s">
         <v>38</v>
       </c>
       <c r="K51" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C52">
-        <v>-1.0313048965229548</v>
+        <v>1.2549373232617196</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>3</v>
       </c>
       <c r="F52">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G52">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H52">
-        <v>3.6721768707482898</v>
+        <v>3.54068027210884</v>
       </c>
       <c r="I52">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s">
         <v>38</v>
@@ -2470,34 +2646,37 @@
       <c r="K52" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C53">
-        <v>0.65592189449717464</v>
+        <v>1.4046911804528555</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>3</v>
       </c>
       <c r="F53">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G53">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H53">
-        <v>3.4781405895691599</v>
+        <v>3.9851927437641699</v>
       </c>
       <c r="I53">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="J53" t="s">
         <v>38</v>
@@ -2505,34 +2684,37 @@
       <c r="K53" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C54">
-        <v>0.97211157047895325</v>
+        <v>1.4046911804528555</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G54">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H54">
-        <v>2.688027210884353</v>
+        <v>3.9851927437641699</v>
       </c>
       <c r="I54">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J54" t="s">
         <v>38</v>
@@ -2540,34 +2722,37 @@
       <c r="K54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>-1.4805664680963626</v>
+        <v>1.4046911804528555</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>3</v>
       </c>
       <c r="F55">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G55">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55">
-        <v>3.5404761904761903</v>
+        <v>3.9851927437641699</v>
       </c>
       <c r="I55">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="J55" t="s">
         <v>38</v>
@@ -2575,34 +2760,37 @@
       <c r="K55" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C56">
-        <v>0.98948011330479291</v>
+        <v>-1.5491056174137092</v>
       </c>
       <c r="D56">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="F56">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G56">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H56">
-        <v>3.0989115646258503</v>
+        <v>3.30308390022675</v>
       </c>
       <c r="I56">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="J56" t="s">
         <v>38</v>
@@ -2610,34 +2798,37 @@
       <c r="K56" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C57">
-        <v>-0.41232228679959398</v>
+        <v>-1.5491056174137092</v>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G57">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H57">
-        <v>3.1113832199546403</v>
+        <v>3.30308390022675</v>
       </c>
       <c r="I57">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J57" t="s">
         <v>38</v>
@@ -2645,34 +2836,37 @@
       <c r="K57" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C58">
-        <v>-0.53706073129766818</v>
+        <v>-1.5491056174137092</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G58">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H58">
-        <v>3.75081632653061</v>
+        <v>3.30308390022675</v>
       </c>
       <c r="I58">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J58" t="s">
         <v>38</v>
@@ -2680,34 +2874,37 @@
       <c r="K58" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C59">
-        <v>-1.1424907215263371</v>
+        <v>-1.1913061482898895</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G59">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H59">
-        <v>3.13696145124716</v>
+        <v>3.7509750566893398</v>
       </c>
       <c r="I59">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="J59" t="s">
         <v>38</v>
@@ -2715,34 +2912,37 @@
       <c r="K59" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C60">
-        <v>0.15674237052672263</v>
+        <v>-1.1913061482898895</v>
       </c>
       <c r="D60">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G60">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H60">
-        <v>3.16766439909297</v>
+        <v>3.7509750566893398</v>
       </c>
       <c r="I60">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J60" t="s">
         <v>38</v>
@@ -2750,34 +2950,37 @@
       <c r="K60" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C61">
-        <v>1.4242230970513805</v>
+        <v>-1.1913061482898895</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G61">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H61">
-        <v>3.3681859410430799</v>
+        <v>3.7509750566893398</v>
       </c>
       <c r="I61">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="J61" t="s">
         <v>38</v>
@@ -2785,8 +2988,11 @@
       <c r="K61" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>47</v>
       </c>
@@ -2812,112 +3018,121 @@
         <v>3.3168480725623501</v>
       </c>
       <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
+      <c r="K62" t="s">
+        <v>39</v>
+      </c>
+      <c r="L62">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>-0.63412378462273378</v>
+      </c>
+      <c r="D63">
+        <v>21</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>62</v>
+      </c>
+      <c r="G63">
+        <v>92</v>
+      </c>
+      <c r="H63">
+        <v>3.3168480725623501</v>
+      </c>
+      <c r="I63">
+        <v>35</v>
+      </c>
+      <c r="J63" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" t="s">
+        <v>39</v>
+      </c>
+      <c r="L63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>-0.63412378462273378</v>
+      </c>
+      <c r="D64">
+        <v>21</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>62</v>
+      </c>
+      <c r="G64">
+        <v>92</v>
+      </c>
+      <c r="H64">
+        <v>3.3168480725623501</v>
+      </c>
+      <c r="I64">
         <v>61</v>
       </c>
-      <c r="J62" t="s">
-        <v>38</v>
-      </c>
-      <c r="K62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63">
-        <v>-1.1293393049458027</v>
-      </c>
-      <c r="D63">
+      <c r="J64" t="s">
+        <v>38</v>
+      </c>
+      <c r="K64" t="s">
+        <v>39</v>
+      </c>
+      <c r="L64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>0.16624841156760786</v>
+      </c>
+      <c r="D65">
+        <v>22</v>
+      </c>
+      <c r="E65">
         <v>2</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>42</v>
-      </c>
-      <c r="G63">
-        <v>72</v>
-      </c>
-      <c r="H63">
-        <v>3.8270294784580399</v>
-      </c>
-      <c r="I63">
-        <v>62</v>
-      </c>
-      <c r="J63" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64">
-        <v>-0.3072020091293417</v>
-      </c>
-      <c r="D64">
-        <v>4</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>44</v>
-      </c>
-      <c r="G64">
-        <v>74</v>
-      </c>
-      <c r="H64">
-        <v>3.2894784580498797</v>
-      </c>
-      <c r="I64">
+      <c r="F65">
         <v>63</v>
       </c>
-      <c r="J64" t="s">
-        <v>38</v>
-      </c>
-      <c r="K64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65">
-        <v>-0.62197768686718324</v>
-      </c>
-      <c r="D65">
-        <v>12</v>
-      </c>
-      <c r="E65">
-        <v>3</v>
-      </c>
-      <c r="F65">
-        <v>53</v>
-      </c>
       <c r="G65">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H65">
-        <v>3.5562358276643899</v>
+        <v>3.0609977324263</v>
       </c>
       <c r="I65">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="J65" t="s">
         <v>38</v>
@@ -2925,8 +3140,11 @@
       <c r="K65" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -2952,7 +3170,7 @@
         <v>3.0609977324263</v>
       </c>
       <c r="I66">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J66" t="s">
         <v>38</v>
@@ -2960,148 +3178,163 @@
       <c r="K66" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67">
-        <v>0.46505470843950819</v>
+        <v>0.16624841156760786</v>
       </c>
       <c r="D67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E67">
         <v>2</v>
       </c>
       <c r="F67">
+        <v>63</v>
+      </c>
+      <c r="G67">
+        <v>93</v>
+      </c>
+      <c r="H67">
+        <v>3.0609977324263</v>
+      </c>
+      <c r="I67">
+        <v>65</v>
+      </c>
+      <c r="J67" t="s">
+        <v>38</v>
+      </c>
+      <c r="K67" t="s">
+        <v>39</v>
+      </c>
+      <c r="L67">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>0.46505470843950819</v>
+      </c>
+      <c r="D68">
+        <v>23</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
         <v>64</v>
       </c>
-      <c r="G67">
+      <c r="G68">
         <v>94</v>
       </c>
-      <c r="H67">
+      <c r="H68">
         <v>3.6325170068027202</v>
       </c>
-      <c r="I67">
+      <c r="I68">
+        <v>14</v>
+      </c>
+      <c r="J68" t="s">
+        <v>38</v>
+      </c>
+      <c r="K68" t="s">
+        <v>39</v>
+      </c>
+      <c r="L68">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69">
+        <v>0.46505470843950819</v>
+      </c>
+      <c r="D69">
+        <v>23</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>64</v>
+      </c>
+      <c r="G69">
+        <v>94</v>
+      </c>
+      <c r="H69">
+        <v>3.6325170068027202</v>
+      </c>
+      <c r="I69">
+        <v>40</v>
+      </c>
+      <c r="J69" t="s">
+        <v>38</v>
+      </c>
+      <c r="K69" t="s">
+        <v>39</v>
+      </c>
+      <c r="L69">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>0.46505470843950819</v>
+      </c>
+      <c r="D70">
+        <v>23</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>64</v>
+      </c>
+      <c r="G70">
+        <v>94</v>
+      </c>
+      <c r="H70">
+        <v>3.6325170068027202</v>
+      </c>
+      <c r="I70">
         <v>66</v>
       </c>
-      <c r="J67" t="s">
-        <v>38</v>
-      </c>
-      <c r="K67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68">
-        <v>0.80567575168831174</v>
-      </c>
-      <c r="D68">
-        <v>16</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-      <c r="F68">
-        <v>57</v>
-      </c>
-      <c r="G68">
-        <v>87</v>
-      </c>
-      <c r="H68">
-        <v>3.9615873015872998</v>
-      </c>
-      <c r="I68">
-        <v>67</v>
-      </c>
-      <c r="J68" t="s">
-        <v>38</v>
-      </c>
-      <c r="K68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69">
-        <v>1.4046911804528555</v>
-      </c>
-      <c r="D69">
-        <v>18</v>
-      </c>
-      <c r="E69">
-        <v>3</v>
-      </c>
-      <c r="F69">
-        <v>59</v>
-      </c>
-      <c r="G69">
-        <v>89</v>
-      </c>
-      <c r="H69">
-        <v>3.9851927437641699</v>
-      </c>
-      <c r="I69">
-        <v>68</v>
-      </c>
-      <c r="J69" t="s">
-        <v>38</v>
-      </c>
-      <c r="K69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70">
-        <v>6.3624465804048597E-2</v>
-      </c>
-      <c r="D70">
-        <v>5</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>45</v>
-      </c>
-      <c r="G70">
-        <v>75</v>
-      </c>
-      <c r="H70">
-        <v>3.18668934240362</v>
-      </c>
-      <c r="I70">
-        <v>69</v>
-      </c>
       <c r="J70" t="s">
         <v>38</v>
       </c>
       <c r="K70" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>56</v>
       </c>
@@ -3127,147 +3360,159 @@
         <v>3.9427210884353698</v>
       </c>
       <c r="I71">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s">
+        <v>38</v>
+      </c>
+      <c r="K71" t="s">
+        <v>39</v>
+      </c>
+      <c r="L71">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>0.78164074653547022</v>
+      </c>
+      <c r="D72">
+        <v>24</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>65</v>
+      </c>
+      <c r="G72">
+        <v>95</v>
+      </c>
+      <c r="H72">
+        <v>3.9427210884353698</v>
+      </c>
+      <c r="I72">
+        <v>44</v>
+      </c>
+      <c r="J72" t="s">
+        <v>38</v>
+      </c>
+      <c r="K72" t="s">
+        <v>39</v>
+      </c>
+      <c r="L72">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73">
+        <v>0.78164074653547022</v>
+      </c>
+      <c r="D73">
+        <v>24</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>65</v>
+      </c>
+      <c r="G73">
+        <v>95</v>
+      </c>
+      <c r="H73">
+        <v>3.9427210884353698</v>
+      </c>
+      <c r="I73">
         <v>70</v>
       </c>
-      <c r="J71" t="s">
-        <v>38</v>
-      </c>
-      <c r="K71" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72">
-        <v>0.23169249593766542</v>
-      </c>
-      <c r="D72">
-        <v>6</v>
-      </c>
-      <c r="E72">
+      <c r="J73" t="s">
+        <v>38</v>
+      </c>
+      <c r="K73" t="s">
+        <v>39</v>
+      </c>
+      <c r="L73">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>0.97211157047895325</v>
+      </c>
+      <c r="D74">
+        <v>25</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>66</v>
+      </c>
+      <c r="G74">
+        <v>96</v>
+      </c>
+      <c r="H74">
+        <v>2.688027210884353</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
-      <c r="F72">
-        <v>46</v>
-      </c>
-      <c r="G72">
-        <v>76</v>
-      </c>
-      <c r="H72">
-        <v>3.35551020408163</v>
-      </c>
-      <c r="I72">
-        <v>71</v>
-      </c>
-      <c r="J72" t="s">
-        <v>38</v>
-      </c>
-      <c r="K72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73">
-        <v>-0.7317971821406829</v>
-      </c>
-      <c r="D73">
-        <v>11</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
-      <c r="F73">
-        <v>52</v>
-      </c>
-      <c r="G73">
-        <v>82</v>
-      </c>
-      <c r="H73">
-        <v>2.8854421768707481</v>
-      </c>
-      <c r="I73">
-        <v>72</v>
-      </c>
-      <c r="J73" t="s">
-        <v>38</v>
-      </c>
-      <c r="K73" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="J74" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" t="s">
+        <v>39</v>
+      </c>
+      <c r="L74">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>0.97211157047895325</v>
+      </c>
+      <c r="D75">
         <v>25</v>
-      </c>
-      <c r="C74">
-        <v>1.2549373232617196</v>
-      </c>
-      <c r="D74">
-        <v>17</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-      <c r="F74">
-        <v>58</v>
-      </c>
-      <c r="G74">
-        <v>88</v>
-      </c>
-      <c r="H74">
-        <v>3.54068027210884</v>
-      </c>
-      <c r="I74">
-        <v>73</v>
-      </c>
-      <c r="J74" t="s">
-        <v>38</v>
-      </c>
-      <c r="K74" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75">
-        <v>-1.1913061482898895</v>
-      </c>
-      <c r="D75">
-        <v>20</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
       <c r="F75">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G75">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H75">
-        <v>3.7509750566893398</v>
+        <v>2.688027210884353</v>
       </c>
       <c r="I75">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="J75" t="s">
         <v>38</v>
@@ -3275,34 +3520,37 @@
       <c r="K75" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C76">
-        <v>-1.5491056174137092</v>
+        <v>0.97211157047895325</v>
       </c>
       <c r="D76">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
       <c r="F76">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G76">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H76">
-        <v>3.30308390022675</v>
+        <v>2.688027210884353</v>
       </c>
       <c r="I76">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="J76" t="s">
         <v>38</v>
@@ -3310,113 +3558,128 @@
       <c r="K76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C77">
-        <v>1.3965527081060551</v>
+        <v>0.98948011330479291</v>
       </c>
       <c r="D77">
+        <v>26</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>67</v>
+      </c>
+      <c r="G77">
+        <v>97</v>
+      </c>
+      <c r="H77">
+        <v>3.0989115646258503</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77" t="s">
+        <v>38</v>
+      </c>
+      <c r="K77" t="s">
+        <v>39</v>
+      </c>
+      <c r="L77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" t="s">
         <v>7</v>
       </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>47</v>
-      </c>
-      <c r="G77">
-        <v>77</v>
-      </c>
-      <c r="H77">
-        <v>3.0733333333333297</v>
-      </c>
-      <c r="I77">
-        <v>76</v>
-      </c>
-      <c r="J77" t="s">
-        <v>38</v>
-      </c>
-      <c r="K77" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="C78">
+        <v>0.98948011330479291</v>
+      </c>
+      <c r="D78">
+        <v>26</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>67</v>
+      </c>
+      <c r="G78">
+        <v>97</v>
+      </c>
+      <c r="H78">
+        <v>3.0989115646258503</v>
+      </c>
+      <c r="I78">
         <v>29</v>
       </c>
-      <c r="C78">
-        <v>-1.0313048965229548</v>
-      </c>
-      <c r="D78">
-        <v>10</v>
-      </c>
-      <c r="E78">
-        <v>3</v>
-      </c>
-      <c r="F78">
-        <v>51</v>
-      </c>
-      <c r="G78">
-        <v>81</v>
-      </c>
-      <c r="H78">
-        <v>3.6721768707482898</v>
-      </c>
-      <c r="I78">
-        <v>77</v>
-      </c>
       <c r="J78" t="s">
         <v>38</v>
       </c>
       <c r="K78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>0.98948011330479291</v>
+      </c>
+      <c r="D79">
+        <v>26</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>67</v>
+      </c>
+      <c r="G79">
+        <v>97</v>
+      </c>
+      <c r="H79">
+        <v>3.0989115646258503</v>
+      </c>
+      <c r="I79">
+        <v>55</v>
+      </c>
+      <c r="J79" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" t="s">
+        <v>39</v>
+      </c>
+      <c r="L79">
         <v>30</v>
       </c>
-      <c r="C79">
-        <v>0.65592189449717464</v>
-      </c>
-      <c r="D79">
-        <v>15</v>
-      </c>
-      <c r="E79">
-        <v>3</v>
-      </c>
-      <c r="F79">
-        <v>56</v>
-      </c>
-      <c r="G79">
-        <v>86</v>
-      </c>
-      <c r="H79">
-        <v>3.4781405895691599</v>
-      </c>
-      <c r="I79">
-        <v>78</v>
-      </c>
-      <c r="J79" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:L79">
+    <sortCondition ref="L2:L79"/>
+  </sortState>
   <dataConsolidate/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
